--- a/data/trans_orig/P19C09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3282A194-E136-4473-89D9-0A7AFE369CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{652FF851-501B-4A3C-B52C-E602910B1860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2FF7ADAD-6A9E-4DD3-B24D-B1D1242C6D48}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1976783-0F6D-4719-BBFD-06FB2A629E74}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="343">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2007 (Tasa respuesta: 78,01%)</t>
   </si>
@@ -76,1003 +76,997 @@
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,59%</t>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>97,88%</t>
   </si>
   <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
     <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD94E068-200A-432D-B282-944871BA187C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDB8628-9877-453E-A2E8-DBC0262BDF00}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1921,10 +1915,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -1933,13 +1927,13 @@
         <v>10798</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -1948,13 +1942,13 @@
         <v>23204</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1963,13 @@
         <v>488604</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>563</v>
@@ -1984,13 +1978,13 @@
         <v>590731</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1035</v>
@@ -1999,13 +1993,13 @@
         <v>1079335</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,7 +2055,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2073,13 +2067,13 @@
         <v>6423</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -2088,13 +2082,13 @@
         <v>14734</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2103,13 +2097,13 @@
         <v>21157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,13 +2118,13 @@
         <v>398325</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>415</v>
@@ -2139,13 +2133,13 @@
         <v>424451</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>790</v>
@@ -2154,13 +2148,13 @@
         <v>822776</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,7 +2210,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2228,13 +2222,13 @@
         <v>9527</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -2243,13 +2237,13 @@
         <v>18360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -2258,13 +2252,13 @@
         <v>27887</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2273,13 @@
         <v>261978</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>293</v>
@@ -2294,13 +2288,13 @@
         <v>299075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>558</v>
@@ -2309,13 +2303,13 @@
         <v>561053</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,7 +2365,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2383,13 +2377,13 @@
         <v>20818</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -2398,13 +2392,13 @@
         <v>24471</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -2413,13 +2407,13 @@
         <v>45289</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2428,13 @@
         <v>317227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>425</v>
@@ -2449,13 +2443,13 @@
         <v>430675</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>751</v>
@@ -2464,13 +2458,13 @@
         <v>747901</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2532,13 @@
         <v>64290</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>83</v>
@@ -2553,13 +2547,13 @@
         <v>86034</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>146</v>
@@ -2568,13 +2562,13 @@
         <v>150323</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,16 +2580,16 @@
         <v>2340</v>
       </c>
       <c r="D23" s="7">
-        <v>2386201</v>
+        <v>2386200</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>2593</v>
@@ -2604,13 +2598,13 @@
         <v>2651221</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="M23" s="7">
         <v>4933</v>
@@ -2619,13 +2613,13 @@
         <v>5037423</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,7 +2631,7 @@
         <v>2403</v>
       </c>
       <c r="D24" s="7">
-        <v>2450491</v>
+        <v>2450490</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2681,7 +2675,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2703,7 +2697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DADD970-DAFC-4369-8125-C97EE7076C43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2849E279-4910-47A9-9352-CB3CC3AC6834}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2720,7 +2714,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2827,13 +2821,13 @@
         <v>7835</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -2842,13 +2836,13 @@
         <v>11038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -2857,13 +2851,13 @@
         <v>18873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2872,13 @@
         <v>358337</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>341</v>
@@ -2893,13 +2887,13 @@
         <v>350261</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>694</v>
@@ -2908,13 +2902,13 @@
         <v>708598</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +2976,13 @@
         <v>10571</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -2997,13 +2991,13 @@
         <v>18980</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -3012,13 +3006,13 @@
         <v>29551</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3027,13 @@
         <v>578752</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>488</v>
@@ -3048,13 +3042,13 @@
         <v>522597</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>1050</v>
@@ -3063,13 +3057,13 @@
         <v>1101349</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3131,13 @@
         <v>6933</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3152,13 +3146,13 @@
         <v>16848</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -3167,13 +3161,13 @@
         <v>23781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3182,13 @@
         <v>564169</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
         <v>594</v>
@@ -3203,13 +3197,13 @@
         <v>626372</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>1136</v>
@@ -3218,13 +3212,13 @@
         <v>1190541</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,7 +3274,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3292,13 +3286,13 @@
         <v>6138</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3307,13 +3301,13 @@
         <v>9808</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3322,13 +3316,13 @@
         <v>15947</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,13 +3337,13 @@
         <v>514742</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>471</v>
@@ -3358,13 +3352,13 @@
         <v>537073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>933</v>
@@ -3373,13 +3367,13 @@
         <v>1051813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,7 +3429,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3447,13 +3441,13 @@
         <v>6059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3462,13 +3456,13 @@
         <v>8914</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -3477,13 +3471,13 @@
         <v>14973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>208</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3492,13 @@
         <v>343088</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
         <v>337</v>
@@ -3513,13 +3507,13 @@
         <v>373541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>655</v>
@@ -3528,13 +3522,13 @@
         <v>716629</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,7 +3584,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3602,13 +3596,13 @@
         <v>11247</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>56</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -3617,13 +3611,13 @@
         <v>20573</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -3632,13 +3626,13 @@
         <v>31820</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3647,13 @@
         <v>428849</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="H20" s="7">
         <v>537</v>
@@ -3668,13 +3662,13 @@
         <v>574179</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>926</v>
@@ -3683,13 +3677,13 @@
         <v>1003028</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3751,13 @@
         <v>48784</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -3772,13 +3766,13 @@
         <v>86161</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -3787,13 +3781,13 @@
         <v>134945</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,16 +3799,16 @@
         <v>2626</v>
       </c>
       <c r="D23" s="7">
-        <v>2787936</v>
+        <v>2787935</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H23" s="7">
         <v>2768</v>
@@ -3823,13 +3817,13 @@
         <v>2984023</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M23" s="7">
         <v>5394</v>
@@ -3838,13 +3832,13 @@
         <v>5771958</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,7 +3850,7 @@
         <v>2671</v>
       </c>
       <c r="D24" s="7">
-        <v>2836720</v>
+        <v>2836719</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3900,7 +3894,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3922,7 +3916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532D8E28-B35C-4EE4-8853-9DAB7DDCCBF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6CBCAF-EEA4-4C50-A50D-4CA858678786}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3939,7 +3933,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4046,13 +4040,13 @@
         <v>11916</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4061,13 +4055,13 @@
         <v>7620</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4076,13 +4070,13 @@
         <v>19535</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>113</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4091,13 @@
         <v>340924</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H5" s="7">
         <v>351</v>
@@ -4112,13 +4106,13 @@
         <v>344310</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>671</v>
@@ -4127,13 +4121,13 @@
         <v>685235</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>123</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4195,13 @@
         <v>14818</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4216,13 +4210,13 @@
         <v>16255</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -4231,13 +4225,13 @@
         <v>31073</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4246,13 @@
         <v>478260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H8" s="7">
         <v>494</v>
@@ -4267,13 +4261,13 @@
         <v>480465</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M8" s="7">
         <v>955</v>
@@ -4282,13 +4276,13 @@
         <v>958724</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4350,13 @@
         <v>19156</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4371,13 +4365,13 @@
         <v>12316</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -4386,13 +4380,13 @@
         <v>31472</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4401,13 @@
         <v>538704</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>564</v>
@@ -4422,13 +4416,13 @@
         <v>560764</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>286</v>
       </c>
       <c r="M11" s="7">
         <v>1078</v>
@@ -4437,13 +4431,13 @@
         <v>1099468</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,7 +4493,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4511,13 +4505,13 @@
         <v>10531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -4529,10 +4523,10 @@
         <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4541,13 +4535,13 @@
         <v>24036</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4556,13 @@
         <v>501841</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -4577,13 +4571,13 @@
         <v>531379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>948</v>
@@ -4592,13 +4586,13 @@
         <v>1033220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,7 +4648,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4666,13 +4660,13 @@
         <v>6581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4681,13 +4675,13 @@
         <v>15014</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4696,13 +4690,13 @@
         <v>21595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4711,13 @@
         <v>364421</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>332</v>
@@ -4732,13 +4726,13 @@
         <v>380859</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
         <v>655</v>
@@ -4747,13 +4741,13 @@
         <v>745280</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,7 +4803,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4821,13 +4815,13 @@
         <v>13059</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>322</v>
+        <v>69</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -4836,13 +4830,13 @@
         <v>11691</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>178</v>
+        <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -4851,13 +4845,13 @@
         <v>24750</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4866,13 @@
         <v>364123</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>420</v>
@@ -4887,13 +4881,13 @@
         <v>493136</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>184</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>807</v>
@@ -4902,13 +4896,13 @@
         <v>857259</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4970,13 @@
         <v>76062</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>332</v>
+        <v>160</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -4991,13 +4985,13 @@
         <v>76400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>143</v>
@@ -5006,13 +5000,13 @@
         <v>152462</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>35</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,16 +5018,16 @@
         <v>2458</v>
       </c>
       <c r="D23" s="7">
-        <v>2588272</v>
+        <v>2588271</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="H23" s="7">
         <v>2656</v>
@@ -5042,28 +5036,28 @@
         <v>2790915</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>342</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>5114</v>
       </c>
       <c r="N23" s="7">
-        <v>5379187</v>
+        <v>5379186</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>44</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,7 +5069,7 @@
         <v>2530</v>
       </c>
       <c r="D24" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5105,7 +5099,7 @@
         <v>5257</v>
       </c>
       <c r="N24" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5119,7 +5113,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{652FF851-501B-4A3C-B52C-E602910B1860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11651E33-8B9C-410C-B2A5-C37D2264074A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1976783-0F6D-4719-BBFD-06FB2A629E74}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF308325-3AAC-448A-B46D-1B2D4BAD26DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="347">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2007 (Tasa respuesta: 78,01%)</t>
   </si>
@@ -79,994 +79,1006 @@
     <t>0,26%</t>
   </si>
   <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>96,48%</t>
   </si>
   <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
+    <t>97,78%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>97,88%</t>
+    <t>96,7%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDB8628-9877-453E-A2E8-DBC0262BDF00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62C9623-731A-4150-9D83-A93A0DC20B5D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1915,10 +1927,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -1927,13 +1939,13 @@
         <v>10798</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -1942,13 +1954,13 @@
         <v>23204</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1975,13 @@
         <v>488604</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>563</v>
@@ -1978,13 +1990,13 @@
         <v>590731</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1035</v>
@@ -1993,13 +2005,13 @@
         <v>1079335</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,7 +2067,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2067,13 +2079,13 @@
         <v>6423</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -2082,13 +2094,13 @@
         <v>14734</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2097,13 +2109,13 @@
         <v>21157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,13 +2130,13 @@
         <v>398325</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>415</v>
@@ -2133,13 +2145,13 @@
         <v>424451</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>790</v>
@@ -2148,13 +2160,13 @@
         <v>822776</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,7 +2222,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2222,13 +2234,13 @@
         <v>9527</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -2237,13 +2249,13 @@
         <v>18360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -2252,13 +2264,13 @@
         <v>27887</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2285,13 @@
         <v>261978</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>293</v>
@@ -2288,13 +2300,13 @@
         <v>299075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>558</v>
@@ -2303,13 +2315,13 @@
         <v>561053</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,7 +2377,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2377,13 +2389,13 @@
         <v>20818</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -2392,13 +2404,13 @@
         <v>24471</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -2407,13 +2419,13 @@
         <v>45289</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2440,13 @@
         <v>317227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>425</v>
@@ -2443,13 +2455,13 @@
         <v>430675</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>751</v>
@@ -2458,13 +2470,13 @@
         <v>747901</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2544,13 @@
         <v>64290</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>83</v>
@@ -2547,13 +2559,13 @@
         <v>86034</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>146</v>
@@ -2562,13 +2574,13 @@
         <v>150323</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2595,13 @@
         <v>2386200</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>2593</v>
@@ -2598,13 +2610,13 @@
         <v>2651221</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>4933</v>
@@ -2613,13 +2625,13 @@
         <v>5037423</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,7 +2687,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2697,7 +2709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2849E279-4910-47A9-9352-CB3CC3AC6834}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE73A6A-0BCE-4546-93FD-627657A0B497}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2714,7 +2726,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2821,13 +2833,13 @@
         <v>7835</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -2836,13 +2848,13 @@
         <v>11038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -2851,13 +2863,13 @@
         <v>18873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,13 +2884,13 @@
         <v>358337</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>341</v>
@@ -2887,13 +2899,13 @@
         <v>350261</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>694</v>
@@ -2902,13 +2914,13 @@
         <v>708598</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +2988,13 @@
         <v>10571</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -2991,13 +3003,13 @@
         <v>18980</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -3006,13 +3018,13 @@
         <v>29551</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3039,13 @@
         <v>578752</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>488</v>
@@ -3042,13 +3054,13 @@
         <v>522597</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>1050</v>
@@ -3057,13 +3069,13 @@
         <v>1101349</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3143,13 @@
         <v>6933</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3146,13 +3158,13 @@
         <v>16848</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -3161,13 +3173,13 @@
         <v>23781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3194,13 @@
         <v>564169</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>594</v>
@@ -3197,13 +3209,13 @@
         <v>626372</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7">
         <v>1136</v>
@@ -3212,13 +3224,13 @@
         <v>1190541</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,7 +3286,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3286,13 +3298,13 @@
         <v>6138</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3301,13 +3313,13 @@
         <v>9808</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3316,13 +3328,13 @@
         <v>15947</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,28 +3349,28 @@
         <v>514742</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>471</v>
       </c>
       <c r="I14" s="7">
-        <v>537073</v>
+        <v>537072</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>933</v>
@@ -3367,13 +3379,13 @@
         <v>1051813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,7 +3412,7 @@
         <v>479</v>
       </c>
       <c r="I15" s="7">
-        <v>546881</v>
+        <v>546880</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3429,7 +3441,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3441,13 +3453,13 @@
         <v>6059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3456,13 +3468,13 @@
         <v>8914</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -3471,13 +3483,13 @@
         <v>14973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>127</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3504,13 @@
         <v>343088</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="H17" s="7">
         <v>337</v>
@@ -3507,13 +3519,13 @@
         <v>373541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>655</v>
@@ -3522,13 +3534,13 @@
         <v>716629</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,7 +3596,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3596,13 +3608,13 @@
         <v>11247</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -3611,13 +3623,13 @@
         <v>20573</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -3626,13 +3638,13 @@
         <v>31820</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3659,13 @@
         <v>428849</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>537</v>
@@ -3662,13 +3674,13 @@
         <v>574179</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c r="M20" s="7">
         <v>926</v>
@@ -3677,13 +3689,13 @@
         <v>1003028</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3763,13 @@
         <v>48784</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -3766,13 +3778,13 @@
         <v>86161</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -3781,13 +3793,13 @@
         <v>134945</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,16 +3811,16 @@
         <v>2626</v>
       </c>
       <c r="D23" s="7">
-        <v>2787935</v>
+        <v>2787936</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H23" s="7">
         <v>2768</v>
@@ -3817,13 +3829,13 @@
         <v>2984023</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M23" s="7">
         <v>5394</v>
@@ -3832,13 +3844,13 @@
         <v>5771958</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,7 +3862,7 @@
         <v>2671</v>
       </c>
       <c r="D24" s="7">
-        <v>2836719</v>
+        <v>2836720</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3894,7 +3906,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3916,7 +3928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6CBCAF-EEA4-4C50-A50D-4CA858678786}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7892C70E-13C0-46D2-92D5-0A2AECDA85E6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3933,7 +3945,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4040,13 +4052,13 @@
         <v>11916</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>249</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4055,13 +4067,13 @@
         <v>7620</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4070,13 +4082,13 @@
         <v>19535</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4103,13 @@
         <v>340924</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H5" s="7">
         <v>351</v>
@@ -4106,13 +4118,13 @@
         <v>344310</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="M5" s="7">
         <v>671</v>
@@ -4121,13 +4133,13 @@
         <v>685235</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4207,13 @@
         <v>14818</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4210,13 +4222,13 @@
         <v>16255</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -4225,13 +4237,13 @@
         <v>31073</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4258,13 @@
         <v>478260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H8" s="7">
         <v>494</v>
@@ -4261,13 +4273,13 @@
         <v>480465</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M8" s="7">
         <v>955</v>
@@ -4276,13 +4288,13 @@
         <v>958724</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4362,13 @@
         <v>19156</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>282</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4365,13 +4377,13 @@
         <v>12316</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -4380,13 +4392,13 @@
         <v>31472</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4413,13 @@
         <v>538704</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="H11" s="7">
         <v>564</v>
@@ -4416,13 +4428,13 @@
         <v>560764</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="M11" s="7">
         <v>1078</v>
@@ -4431,13 +4443,13 @@
         <v>1099468</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,7 +4505,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4505,13 +4517,13 @@
         <v>10531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -4523,10 +4535,10 @@
         <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4535,13 +4547,13 @@
         <v>24036</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,13 +4568,13 @@
         <v>501841</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>174</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -4571,13 +4583,13 @@
         <v>531379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>46</v>
       </c>
       <c r="M14" s="7">
         <v>948</v>
@@ -4586,13 +4598,13 @@
         <v>1033220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,7 +4660,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4660,13 +4672,13 @@
         <v>6581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4675,13 +4687,13 @@
         <v>15014</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>160</v>
+        <v>309</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4690,13 +4702,13 @@
         <v>21595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4723,13 @@
         <v>364421</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>332</v>
@@ -4726,13 +4738,13 @@
         <v>380859</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>170</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>655</v>
@@ -4741,13 +4753,13 @@
         <v>745280</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,7 +4815,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4815,13 +4827,13 @@
         <v>13059</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>164</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>69</v>
+        <v>321</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -4830,13 +4842,13 @@
         <v>11691</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -4845,13 +4857,13 @@
         <v>24750</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4878,13 @@
         <v>364123</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>174</v>
       </c>
       <c r="H20" s="7">
         <v>420</v>
@@ -4881,13 +4893,13 @@
         <v>493136</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>807</v>
@@ -4896,13 +4908,13 @@
         <v>857259</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +4982,13 @@
         <v>76062</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>160</v>
+        <v>332</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -4985,13 +4997,13 @@
         <v>76400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="M22" s="7">
         <v>143</v>
@@ -5000,13 +5012,13 @@
         <v>152462</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,16 +5030,16 @@
         <v>2458</v>
       </c>
       <c r="D23" s="7">
-        <v>2588271</v>
+        <v>2588272</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>341</v>
       </c>
       <c r="H23" s="7">
         <v>2656</v>
@@ -5036,13 +5048,13 @@
         <v>2790915</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>339</v>
+        <v>28</v>
       </c>
       <c r="M23" s="7">
         <v>5114</v>
@@ -5051,13 +5063,13 @@
         <v>5379186</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,7 +5081,7 @@
         <v>2530</v>
       </c>
       <c r="D24" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5113,7 +5125,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11651E33-8B9C-410C-B2A5-C37D2264074A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CCBD91B-070E-4631-A1BC-890B8428A868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF308325-3AAC-448A-B46D-1B2D4BAD26DC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF5888AC-BABC-4B78-8CA4-9CCF1BCD6D11}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="345">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2007 (Tasa respuesta: 78,01%)</t>
   </si>
@@ -70,16 +70,16 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -88,7 +88,7 @@
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,97%</t>
+    <t>3,0%</t>
   </si>
   <si>
     <t>1,13%</t>
@@ -106,16 +106,16 @@
     <t>99,01%</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>97,03%</t>
+    <t>97,0%</t>
   </si>
   <si>
     <t>99,51%</t>
@@ -139,946 +139,940 @@
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>1,38%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
+    <t>97,74%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>96,7%</t>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62C9623-731A-4150-9D83-A93A0DC20B5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A693DE1E-46F8-401D-A64E-1D51A97E5179}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1945,7 +1939,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -1954,10 +1948,10 @@
         <v>23204</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -1993,10 +1987,10 @@
         <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1035</v>
@@ -2005,13 +1999,13 @@
         <v>1079335</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,13 +2553,13 @@
         <v>86034</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>146</v>
@@ -2574,13 +2568,13 @@
         <v>150323</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,16 +2586,16 @@
         <v>2340</v>
       </c>
       <c r="D23" s="7">
-        <v>2386200</v>
+        <v>2386201</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>2593</v>
@@ -2610,13 +2604,13 @@
         <v>2651221</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>4933</v>
@@ -2625,13 +2619,13 @@
         <v>5037423</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,7 +2637,7 @@
         <v>2403</v>
       </c>
       <c r="D24" s="7">
-        <v>2450490</v>
+        <v>2450491</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2687,7 +2681,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2709,7 +2703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE73A6A-0BCE-4546-93FD-627657A0B497}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66A25B9-EE86-4805-AED9-74D13930FD3F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2726,7 +2720,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2833,13 +2827,13 @@
         <v>7835</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -2848,13 +2842,13 @@
         <v>11038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -2863,13 +2857,13 @@
         <v>18873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,13 +2878,13 @@
         <v>358337</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>341</v>
@@ -2899,13 +2893,13 @@
         <v>350261</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>694</v>
@@ -2914,13 +2908,13 @@
         <v>708598</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,13 +2982,13 @@
         <v>10571</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3003,13 +2997,13 @@
         <v>18980</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -3018,13 +3012,13 @@
         <v>29551</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,13 +3033,13 @@
         <v>578752</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>488</v>
@@ -3054,13 +3048,13 @@
         <v>522597</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>1050</v>
@@ -3069,10 +3063,10 @@
         <v>1101349</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>177</v>
@@ -3146,10 +3140,10 @@
         <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3161,10 +3155,10 @@
         <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -3173,7 +3167,7 @@
         <v>23781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>182</v>
@@ -3197,10 +3191,10 @@
         <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7">
         <v>594</v>
@@ -3209,13 +3203,13 @@
         <v>626372</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M11" s="7">
         <v>1136</v>
@@ -3224,7 +3218,7 @@
         <v>1190541</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>188</v>
@@ -3313,7 +3307,7 @@
         <v>9808</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>193</v>
@@ -3334,7 +3328,7 @@
         <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,28 +3343,28 @@
         <v>514742</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H14" s="7">
         <v>471</v>
       </c>
       <c r="I14" s="7">
-        <v>537072</v>
+        <v>537073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>933</v>
@@ -3379,13 +3373,13 @@
         <v>1051813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,7 +3406,7 @@
         <v>479</v>
       </c>
       <c r="I15" s="7">
-        <v>546880</v>
+        <v>546881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3453,13 +3447,13 @@
         <v>6059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3468,13 +3462,13 @@
         <v>8914</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -3483,13 +3477,13 @@
         <v>14973</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3498,13 @@
         <v>343088</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>337</v>
@@ -3519,13 +3513,13 @@
         <v>373541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>655</v>
@@ -3534,13 +3528,13 @@
         <v>716629</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3602,13 @@
         <v>11247</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -3623,13 +3617,13 @@
         <v>20573</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -3638,13 +3632,13 @@
         <v>31820</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3653,13 @@
         <v>428849</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H20" s="7">
         <v>537</v>
@@ -3674,13 +3668,13 @@
         <v>574179</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M20" s="7">
         <v>926</v>
@@ -3689,13 +3683,13 @@
         <v>1003028</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3757,13 @@
         <v>48784</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -3778,13 +3772,13 @@
         <v>86161</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -3793,13 +3787,13 @@
         <v>134945</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,10 +3808,10 @@
         <v>2787936</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>242</v>
+        <v>98</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>244</v>
@@ -3832,7 +3826,7 @@
         <v>245</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>101</v>
+        <v>215</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>246</v>
@@ -3906,7 +3900,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3928,7 +3922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7892C70E-13C0-46D2-92D5-0A2AECDA85E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6949DCE8-5FAD-4504-A1F9-CC66C7CC572B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4052,13 +4046,13 @@
         <v>11916</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4088,7 +4082,7 @@
         <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4097,13 @@
         <v>340924</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H5" s="7">
         <v>351</v>
@@ -4118,13 +4112,13 @@
         <v>344310</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M5" s="7">
         <v>671</v>
@@ -4133,13 +4127,13 @@
         <v>685235</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4201,13 @@
         <v>14818</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4222,13 +4216,13 @@
         <v>16255</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -4237,13 +4231,13 @@
         <v>31073</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4252,13 @@
         <v>478260</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H8" s="7">
         <v>494</v>
@@ -4273,13 +4267,13 @@
         <v>480465</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M8" s="7">
         <v>955</v>
@@ -4288,13 +4282,13 @@
         <v>958724</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,10 +4359,10 @@
         <v>281</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4377,13 +4371,13 @@
         <v>12316</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -4392,13 +4386,13 @@
         <v>31472</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,13 +4407,13 @@
         <v>538704</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>289</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7">
         <v>564</v>
@@ -4428,13 +4422,13 @@
         <v>560764</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>293</v>
+        <v>27</v>
       </c>
       <c r="M11" s="7">
         <v>1078</v>
@@ -4443,13 +4437,13 @@
         <v>1099468</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4511,13 @@
         <v>10531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -4535,7 +4529,7 @@
         <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>36</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>296</v>
@@ -4568,13 +4562,13 @@
         <v>501841</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -4586,10 +4580,10 @@
         <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>46</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>948</v>
@@ -4598,13 +4592,13 @@
         <v>1033220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4666,13 @@
         <v>6581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4687,13 +4681,13 @@
         <v>15014</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>309</v>
+        <v>38</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4702,13 +4696,13 @@
         <v>21595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,13 +4717,13 @@
         <v>364421</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>332</v>
@@ -4738,13 +4732,13 @@
         <v>380859</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7">
         <v>655</v>
@@ -4756,10 +4750,10 @@
         <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,13 +4821,13 @@
         <v>13059</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>164</v>
+        <v>321</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -4842,13 +4836,13 @@
         <v>11691</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>323</v>
+        <v>178</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -4857,7 +4851,7 @@
         <v>24750</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>324</v>
@@ -4878,13 +4872,13 @@
         <v>364123</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>327</v>
       </c>
       <c r="H20" s="7">
         <v>420</v>
@@ -4893,13 +4887,13 @@
         <v>493136</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>807</v>
@@ -5000,10 +4994,10 @@
         <v>334</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>19</v>
+        <v>335</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M22" s="7">
         <v>143</v>
@@ -5012,13 +5006,13 @@
         <v>152462</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>337</v>
+        <v>35</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5027,13 @@
         <v>2588272</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H23" s="7">
         <v>2656</v>
@@ -5048,28 +5042,28 @@
         <v>2790915</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="M23" s="7">
         <v>5114</v>
       </c>
       <c r="N23" s="7">
-        <v>5379186</v>
+        <v>5379187</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>344</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>345</v>
+        <v>276</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>346</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,7 +5105,7 @@
         <v>5257</v>
       </c>
       <c r="N24" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5125,7 +5119,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CCBD91B-070E-4631-A1BC-890B8428A868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1B28EE4-312B-4CA5-A988-0C9F2C1BAD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF5888AC-BABC-4B78-8CA4-9CCF1BCD6D11}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D1745EBB-C8D6-41DC-A9B7-D01FDFDE97C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="382">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2007 (Tasa respuesta: 78,01%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -133,7 +133,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>2,01%</t>
@@ -190,7 +190,7 @@
     <t>98,65%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,48%</t>
@@ -241,7 +241,7 @@
     <t>98,6%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>1,59%</t>
@@ -298,7 +298,7 @@
     <t>98,44%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>3,51%</t>
@@ -355,483 +355,570 @@
     <t>96,77%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
     <t>98,3%</t>
   </si>
   <si>
@@ -847,15 +934,9 @@
     <t>3,27%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
     <t>4,54%</t>
   </si>
   <si>
@@ -874,15 +955,9 @@
     <t>94,78%</t>
   </si>
   <si>
-    <t>98,09%</t>
-  </si>
-  <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>97,79%</t>
-  </si>
-  <si>
     <t>3,43%</t>
   </si>
   <si>
@@ -895,9 +970,6 @@
     <t>3,68%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
     <t>1,9%</t>
   </si>
   <si>
@@ -913,9 +985,6 @@
     <t>96,32%</t>
   </si>
   <si>
-    <t>97,22%</t>
-  </si>
-  <si>
     <t>98,1%</t>
   </si>
   <si>
@@ -1003,34 +1072,82 @@
     <t>95,74%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
   </si>
   <si>
     <t>2,85%</t>
@@ -1039,9 +1156,6 @@
     <t>2,26%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
     <t>2,66%</t>
   </si>
   <si>
@@ -1055,9 +1169,6 @@
   </si>
   <si>
     <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
   </si>
   <si>
     <t>97,74%</t>
@@ -1484,8 +1595,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A693DE1E-46F8-401D-A64E-1D51A97E5179}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4B16F5-F84B-4210-B796-709475AD8657}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1686,7 +1797,7 @@
         <v>748</v>
       </c>
       <c r="N5" s="7">
-        <v>727344</v>
+        <v>727343</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1737,7 +1848,7 @@
         <v>757</v>
       </c>
       <c r="N6" s="7">
-        <v>735654</v>
+        <v>735653</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2377,10 +2488,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>20818</v>
+        <v>9109</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2392,10 +2503,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>24471</v>
+        <v>14321</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2407,10 +2518,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="N19" s="7">
-        <v>45289</v>
+        <v>23430</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2428,10 +2539,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>326</v>
+        <v>208</v>
       </c>
       <c r="D20" s="7">
-        <v>317227</v>
+        <v>202172</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2443,10 +2554,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>425</v>
+        <v>252</v>
       </c>
       <c r="I20" s="7">
-        <v>430675</v>
+        <v>232617</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2458,10 +2569,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>751</v>
+        <v>460</v>
       </c>
       <c r="N20" s="7">
-        <v>747901</v>
+        <v>434789</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2479,10 +2590,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>348</v>
+        <v>218</v>
       </c>
       <c r="D21" s="7">
-        <v>338045</v>
+        <v>211281</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2494,10 +2605,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>449</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>455146</v>
+        <v>246938</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2509,10 +2620,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>797</v>
+        <v>485</v>
       </c>
       <c r="N21" s="7">
-        <v>793190</v>
+        <v>458219</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2526,55 +2637,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>64290</v>
+        <v>11709</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="I22" s="7">
-        <v>86034</v>
+        <v>10150</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="N22" s="7">
-        <v>150323</v>
+        <v>21859</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,49 +2694,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2340</v>
+        <v>118</v>
       </c>
       <c r="D23" s="7">
-        <v>2386201</v>
+        <v>115055</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>2593</v>
+        <v>173</v>
       </c>
       <c r="I23" s="7">
-        <v>2651221</v>
+        <v>198058</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>4933</v>
+        <v>291</v>
       </c>
       <c r="N23" s="7">
-        <v>5037423</v>
+        <v>313113</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,63 +2745,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>130</v>
+      </c>
+      <c r="D24" s="7">
+        <v>126764</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>182</v>
+      </c>
+      <c r="I24" s="7">
+        <v>208208</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>312</v>
+      </c>
+      <c r="N24" s="7">
+        <v>334972</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>63</v>
+      </c>
+      <c r="D25" s="7">
+        <v>64290</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>83</v>
+      </c>
+      <c r="I25" s="7">
+        <v>86034</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>146</v>
+      </c>
+      <c r="N25" s="7">
+        <v>150323</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2340</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2386201</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2593</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2651221</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4933</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5037422</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2403</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2450491</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2676</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2737255</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5079</v>
       </c>
-      <c r="N24" s="7">
-        <v>5187746</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>5187745</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2703,8 +2970,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66A25B9-EE86-4805-AED9-74D13930FD3F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA43A0-2B97-4053-BA3F-1435C747A75F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2720,7 +2987,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2827,13 +3094,13 @@
         <v>7835</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -2842,13 +3109,13 @@
         <v>11038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -2857,13 +3124,13 @@
         <v>18873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +3145,13 @@
         <v>358337</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>341</v>
@@ -2893,13 +3160,13 @@
         <v>350261</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>694</v>
@@ -2908,13 +3175,13 @@
         <v>708598</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +3249,13 @@
         <v>10571</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -2997,13 +3264,13 @@
         <v>18980</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -3012,13 +3279,13 @@
         <v>29551</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3300,13 @@
         <v>578752</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>488</v>
@@ -3048,28 +3315,28 @@
         <v>522597</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>1050</v>
       </c>
       <c r="N8" s="7">
-        <v>1101349</v>
+        <v>1101348</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,7 +3378,7 @@
         <v>1078</v>
       </c>
       <c r="N9" s="7">
-        <v>1130900</v>
+        <v>1130899</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3137,13 +3404,13 @@
         <v>6933</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3152,13 +3419,13 @@
         <v>16848</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -3167,13 +3434,13 @@
         <v>23781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,10 +3455,10 @@
         <v>564169</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>29</v>
@@ -3203,13 +3470,13 @@
         <v>626372</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>1136</v>
@@ -3218,13 +3485,13 @@
         <v>1190541</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3559,13 @@
         <v>6138</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3307,13 +3574,13 @@
         <v>9808</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3322,13 +3589,13 @@
         <v>15947</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,13 +3610,13 @@
         <v>514742</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>471</v>
@@ -3358,13 +3625,13 @@
         <v>537073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>933</v>
@@ -3373,13 +3640,13 @@
         <v>1051813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3714,13 @@
         <v>6059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3462,13 +3729,13 @@
         <v>8914</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -3477,13 +3744,13 @@
         <v>14973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3765,13 @@
         <v>343088</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>337</v>
@@ -3513,13 +3780,13 @@
         <v>373541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>655</v>
@@ -3528,13 +3795,13 @@
         <v>716629</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,49 +3863,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>11247</v>
+        <v>10212</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>20573</v>
+        <v>6919</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="M19" s="7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N19" s="7">
-        <v>31820</v>
+        <v>17131</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>229</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,49 +3914,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>389</v>
+        <v>230</v>
       </c>
       <c r="D20" s="7">
-        <v>428849</v>
+        <v>251166</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="H20" s="7">
-        <v>537</v>
+        <v>280</v>
       </c>
       <c r="I20" s="7">
-        <v>574179</v>
+        <v>289747</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="M20" s="7">
-        <v>926</v>
+        <v>510</v>
       </c>
       <c r="N20" s="7">
-        <v>1003028</v>
+        <v>540913</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,10 +3965,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>398</v>
+        <v>238</v>
       </c>
       <c r="D21" s="7">
-        <v>440096</v>
+        <v>261378</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3713,10 +3980,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>556</v>
+        <v>287</v>
       </c>
       <c r="I21" s="7">
-        <v>594752</v>
+        <v>296666</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3728,10 +3995,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>954</v>
+        <v>525</v>
       </c>
       <c r="N21" s="7">
-        <v>1034848</v>
+        <v>558044</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3745,55 +4012,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>48784</v>
+        <v>1035</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I22" s="7">
-        <v>86161</v>
+        <v>13654</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="N22" s="7">
-        <v>134945</v>
+        <v>14689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,49 +4069,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2626</v>
+        <v>159</v>
       </c>
       <c r="D23" s="7">
-        <v>2787936</v>
+        <v>177683</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
-        <v>2768</v>
+        <v>257</v>
       </c>
       <c r="I23" s="7">
-        <v>2984023</v>
+        <v>284432</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
-        <v>5394</v>
+        <v>416</v>
       </c>
       <c r="N23" s="7">
-        <v>5771958</v>
+        <v>462115</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,63 +4120,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>160</v>
+      </c>
+      <c r="D24" s="7">
+        <v>178718</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>269</v>
+      </c>
+      <c r="I24" s="7">
+        <v>298086</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>429</v>
+      </c>
+      <c r="N24" s="7">
+        <v>476804</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>45</v>
+      </c>
+      <c r="D25" s="7">
+        <v>48784</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="7">
+        <v>77</v>
+      </c>
+      <c r="I25" s="7">
+        <v>86161</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" s="7">
+        <v>122</v>
+      </c>
+      <c r="N25" s="7">
+        <v>134945</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2626</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2787935</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2768</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2984023</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5394</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5771958</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2671</v>
       </c>
-      <c r="D24" s="7">
-        <v>2836720</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2836719</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2845</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3070184</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5516</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>5906903</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3922,8 +4345,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6949DCE8-5FAD-4504-A1F9-CC66C7CC572B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5747A4B1-5DD5-4619-B9B0-CF8A4F7D54E3}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3939,7 +4362,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4046,13 +4469,13 @@
         <v>11916</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4061,13 +4484,13 @@
         <v>7620</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4076,13 +4499,13 @@
         <v>19535</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>113</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4520,13 @@
         <v>340924</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="H5" s="7">
         <v>351</v>
@@ -4112,13 +4535,13 @@
         <v>344310</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="M5" s="7">
         <v>671</v>
@@ -4127,13 +4550,13 @@
         <v>685235</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4624,13 @@
         <v>14818</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4216,13 +4639,13 @@
         <v>16255</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -4231,13 +4654,13 @@
         <v>31073</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4675,13 @@
         <v>478260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>494</v>
@@ -4267,13 +4690,13 @@
         <v>480465</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>955</v>
@@ -4282,13 +4705,13 @@
         <v>958724</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>280</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4779,13 @@
         <v>19156</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4371,13 +4794,13 @@
         <v>12316</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -4386,10 +4809,10 @@
         <v>31472</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>37</v>
@@ -4407,10 +4830,10 @@
         <v>538704</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>82</v>
@@ -4422,10 +4845,10 @@
         <v>560764</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>27</v>
@@ -4437,13 +4860,13 @@
         <v>1099468</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4934,13 @@
         <v>10531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -4529,10 +4952,10 @@
         <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4541,13 +4964,13 @@
         <v>24036</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4985,13 @@
         <v>501841</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -4580,10 +5003,10 @@
         <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="M14" s="7">
         <v>948</v>
@@ -4592,13 +5015,13 @@
         <v>1033220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +5089,13 @@
         <v>6581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4681,13 +5104,13 @@
         <v>15014</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4696,13 +5119,13 @@
         <v>21595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +5140,13 @@
         <v>364421</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="H17" s="7">
         <v>332</v>
@@ -4732,10 +5155,10 @@
         <v>380859</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>47</v>
@@ -4747,13 +5170,13 @@
         <v>745280</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,49 +5238,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>13059</v>
+        <v>4747</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>225</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="H19" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>11691</v>
+        <v>5935</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>163</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>178</v>
+        <v>346</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="M19" s="7">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="N19" s="7">
-        <v>24750</v>
+        <v>10683</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>239</v>
+        <v>348</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,49 +5289,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>387</v>
+        <v>221</v>
       </c>
       <c r="D20" s="7">
-        <v>364123</v>
+        <v>225378</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="H20" s="7">
-        <v>420</v>
+        <v>254</v>
       </c>
       <c r="I20" s="7">
-        <v>493136</v>
+        <v>271013</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>172</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>184</v>
+        <v>353</v>
       </c>
       <c r="M20" s="7">
-        <v>807</v>
+        <v>475</v>
       </c>
       <c r="N20" s="7">
-        <v>857259</v>
+        <v>496391</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>354</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,10 +5340,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>401</v>
+        <v>226</v>
       </c>
       <c r="D21" s="7">
-        <v>377182</v>
+        <v>230125</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4932,10 +5355,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>430</v>
+        <v>260</v>
       </c>
       <c r="I21" s="7">
-        <v>504827</v>
+        <v>276948</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4947,10 +5370,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>831</v>
+        <v>486</v>
       </c>
       <c r="N21" s="7">
-        <v>882009</v>
+        <v>507074</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4964,55 +5387,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>76062</v>
+        <v>8312</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="H22" s="7">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>76400</v>
+        <v>5755</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>335</v>
+        <v>55</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="M22" s="7">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="N22" s="7">
-        <v>152462</v>
+        <v>14067</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>35</v>
+        <v>316</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>268</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,49 +5444,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2458</v>
+        <v>166</v>
       </c>
       <c r="D23" s="7">
-        <v>2588272</v>
+        <v>138745</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="H23" s="7">
-        <v>2656</v>
+        <v>166</v>
       </c>
       <c r="I23" s="7">
-        <v>2790915</v>
+        <v>222124</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>343</v>
+        <v>63</v>
       </c>
       <c r="M23" s="7">
-        <v>5114</v>
+        <v>332</v>
       </c>
       <c r="N23" s="7">
-        <v>5379187</v>
+        <v>360869</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>276</v>
+        <v>369</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>44</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,63 +5495,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>175</v>
+      </c>
+      <c r="D24" s="7">
+        <v>147057</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>170</v>
+      </c>
+      <c r="I24" s="7">
+        <v>227879</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>345</v>
+      </c>
+      <c r="N24" s="7">
+        <v>374936</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>72</v>
+      </c>
+      <c r="D25" s="7">
+        <v>76062</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="7">
+        <v>71</v>
+      </c>
+      <c r="I25" s="7">
+        <v>76400</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M25" s="7">
+        <v>143</v>
+      </c>
+      <c r="N25" s="7">
+        <v>152462</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2458</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2588271</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2656</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2790915</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5114</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5379186</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2530</v>
       </c>
-      <c r="D24" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2664333</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2727</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2867315</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5257</v>
       </c>
-      <c r="N24" s="7">
-        <v>5531649</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>5531648</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
